--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,11 +71,17 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -83,11 +89,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,37 +466,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>food_item</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>ingredients</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>no_of_servings</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>calories</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>protein</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>fats</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>carbohydrates</t>
         </is>
@@ -3069,6 +3146,33 @@
       </c>
       <c r="G99" t="n">
         <v>18.91666666666667</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>egg pakoda appe style</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>half yolk egg: 4.0 serving,besan: 0.8 cup,olive oil: 3.0 tsp</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G100" t="n">
+        <v>21.2</v>
       </c>
     </row>
   </sheetData>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,6 +3121,60 @@
         <v>18.91666666666667</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>filter coffee mocha</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>sweetened oat milk: 0.67 cup,sugar: 6.0 tsp,black coffee: 1.0 serving</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="G99" t="n">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>indian style vegan tofu pizza</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>whole wheat pizza crust: 1.0,ragu pizza sauce: 0.5 cup,vegan mozzarella cheese: 1.0 cup,green capsicum: 0.5,mushroom: 0.5 cup,onion: 0.5,tomato: 1.5,firm tofu: 0.4 block,olive oil: 2.0 tsp</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>424</v>
+      </c>
+      <c r="E100" t="n">
+        <v>25</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>54.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,6 +3175,33 @@
         <v>54.75</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>kala chana onion tomato salad</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>kala chana: 0.33 cup,onion: 0.125,tomato: 0.5</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>75.845</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.657500000000001</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G101" t="n">
+        <v>10.7075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anudurup\OneDrive - Intel Corporation\Documents\Python Projects\my_daily_calorie_counter_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0568F24F-77DF-48F8-850E-21AC7612E468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5F265-8B3F-4578-B0FA-CB381F10376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10764" yWindow="2928" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1036,10 +1036,13 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3354,6 +3354,114 @@
         <v>203.75</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>tomato millet with powder</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>barnyard millet: 0.75 cup,mtr tomato rice powder: 2.0 pack,olive oil: 4.0 tsp,raw chana dal: 1.0 tbsp,peanuts: 2.5 tbsp</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>323.3333333333333</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="G108" t="n">
+        <v>42.33333333333334</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>coffee with oat creamer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>planet oat creamer: 2.0 tbsp</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>50</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>red apple pear orange smoothie no yogurt</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>apple: 1.0,green pear: 1.0,orange: 1.0,pitted date: 8.0,unsweetened almond milk: 1.25 cup</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>253.75</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G110" t="n">
+        <v>58.625</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>capsicum besan sabji</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>green capsicum: 1.0,besan: 0.33 cup,olive oil: 2.0 tsp,onion: 0.75</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>263.48</v>
+      </c>
+      <c r="E111" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="G111" t="n">
+        <v>25.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
